--- a/sheets/11Aug2024.xlsx
+++ b/sheets/11Aug2024.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,10 +418,13 @@
       <c r="E1" t="str">
         <v>Loan</v>
       </c>
+      <c r="F1" t="str">
+        <v>description</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>August 11, 2024</v>
+        <v>August 12, 2024</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -434,11 +437,14 @@
       </c>
       <c r="E2">
         <v>0</v>
+      </c>
+      <c r="F2" t="str">
+        <v>description</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2"/>
   </ignoredErrors>
 </worksheet>
 </file>